--- a/public/data/arz_mabar.xlsx
+++ b/public/data/arz_mabar.xlsx
@@ -1,44 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kowsar\Desktop\محلات\mahalle-basij\public\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582EF28B-8726-41E0-A69C-55CFF54EFE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="7500" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Width</t>
+    <t>تعداد</t>
   </si>
   <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>SUM_Shape_Length</t>
+    <t>عرض معبر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,7 +78,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -92,13 +87,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +139,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +173,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +208,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,121 +384,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>579.6844395924566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>8</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>1766.679827730755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>499.0562554445021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>167.9347465759628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>191.7284332513762</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>548.3330981045024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>648.2239236016025</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>24</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>380.2918240353912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
       <c r="B10">
         <v>2</v>
-      </c>
-      <c r="C10">
-        <v>892.0410885599382</v>
       </c>
     </row>
   </sheetData>
